--- a/01-Trimestre 1/3. Historias de usuario/Historias de usuario modulo de recursos humanos.xlsx
+++ b/01-Trimestre 1/3. Historias de usuario/Historias de usuario modulo de recursos humanos.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhdVITV9aGJ4iSJ86shPEv1hHdH/A=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="rKu4nRdgr2OXOCYxZPhUxlxaNi0KDJQYdNsn4Nu2bQY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t xml:space="preserve">Identificador (ID) de la Historia </t>
   </si>
@@ -114,28 +114,13 @@
     <t xml:space="preserve">El sistema mostrará un listado con todos los empleados con su estado </t>
   </si>
   <si>
-    <t>HU-RH-002 (Referente al CU-003-CU-004)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">Necesito modificar los datos de los empleados y  el estado de un empleado </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Con el fin de editar los datos del estado de un empleado </t>
+    <t>HU-RH-003 (Referente al CU-003)</t>
+  </si>
+  <si>
+    <t>Necesito modificar los datos de los empleados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con el fin de editar los datos  de un empleado </t>
   </si>
   <si>
     <t>Editar empleado</t>
@@ -174,10 +159,10 @@
     <t>El sistema mostrara una ventana donde se muestre la informacion del empleado y su estado (Inactivo)</t>
   </si>
   <si>
-    <t>HU-RH-003 (Referente al CU-005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necesito registrar los pagos de los servicios prestados a los empleados </t>
+    <t>HU-RH-004 (Referente al CU-004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necesito crear los pagos de los servicios prestados a los empleados </t>
   </si>
   <si>
     <t>Con el fin de tener un control de los pagos</t>
@@ -195,28 +180,7 @@
     <t>El sistema mostrara una ventana donde se muestre la informacion del empleado y un espacio donde se registrara el pago a realizar</t>
   </si>
   <si>
-    <t>HU-RH-004 (Referente al CU 006)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necesito consultar los salarios de cada empleado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con el fin de tener un control de los pagos a los empleados </t>
-  </si>
-  <si>
-    <t>Listar los empleados con sus pagos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para consultar los pagos a los empleados </t>
-  </si>
-  <si>
-    <t>Cuando muestra una lista de todos los empleados y sus pagos respectivos</t>
-  </si>
-  <si>
-    <t>El sistema despliega una lista donde se muestran los empleados y sus pagos respectivos</t>
-  </si>
-  <si>
-    <t>HU-RH-005 (Referente al CU-007)</t>
+    <t>HU-RH-005 (Referente al CU-005)</t>
   </si>
   <si>
     <t xml:space="preserve">Necesito modificar los pagos de los servicios prestados a los empleados </t>
@@ -237,7 +201,7 @@
     <t xml:space="preserve">El sistema abrirá una ventana donde se permita editar el pago a cancelar de el empleado </t>
   </si>
   <si>
-    <t>HU-RH-006 (Referente al CU-008)</t>
+    <t>HU-RH-006 (Referente al CU-006)</t>
   </si>
   <si>
     <t xml:space="preserve">Necesito asignar los pagos de los servicios prestados a los empleados </t>
@@ -258,10 +222,10 @@
     <t>El sistestema mostrara la opcion, como un boton,  de asignar un pago</t>
   </si>
   <si>
-    <t>HU-RH-007 (Referente al CU-009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necesito registrar los horarios de los empleados </t>
+    <t>HU-RH-007 (Referente al CU-007)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necesito crear los horarios de los empleados </t>
   </si>
   <si>
     <t xml:space="preserve">Con el fin de tener control de los horarios </t>
@@ -279,49 +243,7 @@
     <t xml:space="preserve">El sistema abrira un cuadro para registrar los horarios según las labores de los empleados </t>
   </si>
   <si>
-    <t>HU-RH-008 (Referente al CU-010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necesito consultar los horarios de los empleados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con el fin de saber los horarios laborales de los empleados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultar horarios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En caso de que se necesite saber el horario especifico de un empleado </t>
-  </si>
-  <si>
-    <t>Cuando muestra un cuadro con los horarios laborales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema abrirá un recuadro donde muestre los horarios laborales </t>
-  </si>
-  <si>
-    <t>HU-RH-009 (Referente al CU-011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necesito asignar horarios los horarios a los empleados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con el fin de asignar horarios a los empleados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asignar Horarios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En caso de que se necesite asignar horarios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuando se muestra una lista de los empleados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema abrira un listado de los empleados con un recuadro en blanco  para ingresar los horarios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU-RH-010 (Referente al CU-012) </t>
+    <t xml:space="preserve">HU-RH-008 (Referente al CU-008) </t>
   </si>
   <si>
     <t xml:space="preserve">Necesito modificar horarios de trabajo </t>
@@ -340,207 +262,6 @@
   </si>
   <si>
     <t xml:space="preserve">El sistema muestra un recuadro con los horarios registrados y el boton de modificar horarios  </t>
-  </si>
-  <si>
-    <t>HU-RH-011(Referente al CU-013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como Administrador /Jefe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necesito consultar la hora de entrada y salida de los empleados </t>
-  </si>
-  <si>
-    <t>Con el fin de  consultar, editar o cancelar servicios agendados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hora de entrada y salida registrada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En caso de que este registrada la hora de netrada y salida de los empleados </t>
-  </si>
-  <si>
-    <t>Cuando se muestre un cuadro con el nombre del empleado y la hora de entrada y salida</t>
-  </si>
-  <si>
-    <t>El sistema mostrara un recuadro donde muestre los nombres de los empleados junto a las horas de entrada y salida.</t>
-  </si>
-  <si>
-    <t>No esta registrada la hora de entrada y salida</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Cuando se muestre un recuadro con un mensaje de hora no registrada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema mostrara un recuadro donde se muestre los nombres de los empleados con un mensaje de hora no registrada </t>
-  </si>
-  <si>
-    <t>HU-RH-012(Referente al CU-014)</t>
-  </si>
-  <si>
-    <t>Como Administrador/Jefe</t>
-  </si>
-  <si>
-    <t>Necesito Registrar los permisos de los empeleados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con fin de registrar los permisos solicitados por los empleados </t>
-  </si>
-  <si>
-    <t>Registrar permisos</t>
-  </si>
-  <si>
-    <t>En caso de que se necesite llevar un control de los permisos solicitados por los empleados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuando se muestre un recuadro para registrar el permiso </t>
-  </si>
-  <si>
-    <t>El sistema mostrara un recuadro donde se permita registrar el motivo del permiso y una breve descripcion</t>
-  </si>
-  <si>
-    <t>HU-RH-013(Referente al CU-015)</t>
-  </si>
-  <si>
-    <t>Necesito consultar los permisos registrados</t>
-  </si>
-  <si>
-    <t>Con fin de consultar y llevar un control de los eprmisos de los empleados</t>
-  </si>
-  <si>
-    <t>Conultar permisos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En caso de que se necesite consultar los permisos de los empleados </t>
-  </si>
-  <si>
-    <t>Cuando se muestra el recuadro con los eprmisos registrados</t>
-  </si>
-  <si>
-    <t>El sistema mostrara un recuadro con los permisos registrados con vista previa y capacidad para seleccionar y ver detalladamente el permiso</t>
-  </si>
-  <si>
-    <t>HU-RH-014(Referente al CU-016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necesito registrar los retardos de los empleados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con fin de registrar los retardos de los empleados </t>
-  </si>
-  <si>
-    <t>Rgistrar retardos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En caso que se necesite llevar un control de los retardos de los empleados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuando se muestre un recuadro para registrar los retardos de los empleados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema mostrara un listado con los nombres de los empleados y un recuadro donde se pueda registrar el retardo </t>
-  </si>
-  <si>
-    <t>HU-RH-014(Referente al CU-017)</t>
-  </si>
-  <si>
-    <t>Necesito consultar los retardos registrados a los clientes</t>
-  </si>
-  <si>
-    <t>Con fin de llevar un control de los retardos de los empleados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultar retardos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuando se muestre un listado de los empleados con los retardos registrados </t>
-  </si>
-  <si>
-    <t>EL sistema mostrara un listado de los empleados  donde se puedan consultar los retardos registrados a cada empleado</t>
-  </si>
-  <si>
-    <t>HU-RH-015(Referente al CU-018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necesito enviar una notificacion al empleado con un llamado de atencion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con fin de notificar al empelado de sus retardos </t>
-  </si>
-  <si>
-    <t>Enviar notificacion</t>
-  </si>
-  <si>
-    <t>En caso que se necesite enviar una notificacion sobre los retardos de los empleados</t>
-  </si>
-  <si>
-    <t>El sistema mostrar un listado de los empleados con los retardos asignados a cada uno y un boton donde se permita enviar notificacon de alerta al empelado en especifico</t>
-  </si>
-  <si>
-    <t>HU RH-017(Referente al CU-019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como Operario/Empleado </t>
-  </si>
-  <si>
-    <t>Necesito Registrar la hora de ingreso y salida laboral</t>
-  </si>
-  <si>
-    <t>Con el fin de llevar un control de las horas de ingreso y salida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registrar la hora de entrada y salida </t>
-  </si>
-  <si>
-    <t>En caso de que se necesite ingresar la hora de entrada y salida como operario.</t>
-  </si>
-  <si>
-    <t>Cuando se muestre un Recuadro para ingresar la hora de entrada y salida</t>
-  </si>
-  <si>
-    <t>El sistema mostrara un recuadro donde permita ingresar la hora de entrada y salida como operario</t>
-  </si>
-  <si>
-    <t>HU RH-018(Referente al CU-020)</t>
-  </si>
-  <si>
-    <t>Necesito consultar la hora de entrada y salida como operario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con fin de consultar la hora de entrada y salida </t>
-  </si>
-  <si>
-    <t>Consultar la hora de entrada y salida</t>
-  </si>
-  <si>
-    <t>En caso que se necesite consultar la hora de entrada y salida como operario</t>
-  </si>
-  <si>
-    <t>Cuando se muestre un recuadro con la informacion del empleado y su hora de entrada y salida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema mostrara un recuadro con los datos del empleado que esta consultando y sus horas de entrada y salida </t>
-  </si>
-  <si>
-    <t>HU RH-019(Referente al CU-021)</t>
-  </si>
-  <si>
-    <t>Necesito modificar la hora de entrada y salida como operario</t>
-  </si>
-  <si>
-    <t>Con fin de modificar la hora de entrada y salida como operario</t>
-  </si>
-  <si>
-    <t>Modificar la hora de entrada y salida</t>
-  </si>
-  <si>
-    <t>En caso de que se necesite modificar la hora de entrada y salida por un error que cometan en digitacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema mostrar un recuadro con los datos de empleado que esta consultando con sus horas de entrada y salida y un boton de modificar </t>
   </si>
 </sst>
 </file>
@@ -666,10 +387,10 @@
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1042,16 +763,16 @@
       </c>
     </row>
     <row r="9" ht="43.5" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="7">
@@ -1113,48 +834,48 @@
       </c>
     </row>
     <row r="12" ht="57.75" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="7">
         <v>1.0</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>46</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13">
+      <c r="A13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>1.0</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -1170,505 +891,119 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+    <row r="14" ht="72.0" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+    <row r="15" ht="87.0" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+    <row r="16" ht="56.25" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>62</v>
-      </c>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
     </row>
-    <row r="18" ht="72.0" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" ht="87.0" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" ht="62.25" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" ht="66.75" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" ht="56.25" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" ht="64.5" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" ht="64.5" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" ht="64.5" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" ht="64.5" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" ht="64.5" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" ht="64.5" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" ht="79.5" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" ht="54.0" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" ht="91.5" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" ht="84.0" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-    </row>
+    <row r="36" ht="14.25" customHeight="1"/>
     <row r="37" ht="14.25" customHeight="1"/>
     <row r="38" ht="14.25" customHeight="1"/>
     <row r="39" ht="14.25" customHeight="1"/>
@@ -1849,22 +1184,22 @@
     <row r="214" ht="14.25" customHeight="1"/>
     <row r="215" ht="14.25" customHeight="1"/>
     <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
     <row r="233" ht="15.75" customHeight="1"/>
     <row r="234" ht="15.75" customHeight="1"/>
     <row r="235" ht="15.75" customHeight="1"/>
@@ -2622,24 +1957,8 @@
     <row r="987" ht="15.75" customHeight="1"/>
     <row r="988" ht="15.75" customHeight="1"/>
     <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="24">
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H3:H5"/>
@@ -2660,23 +1979,10 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
